--- a/main/ig/StructureDefinition-fr-service-request-document.xlsx
+++ b/main/ig/StructureDefinition-fr-service-request-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-service-request-document.xlsx
+++ b/main/ig/StructureDefinition-fr-service-request-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-service-request-document.xlsx
+++ b/main/ig/StructureDefinition-fr-service-request-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-service-request-document.xlsx
+++ b/main/ig/StructureDefinition-fr-service-request-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-service-request-document.xlsx
+++ b/main/ig/StructureDefinition-fr-service-request-document.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FRSeviceRequestDocument</t>
+    <t>FRServiceRequestDocument</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>FRSeviceRequestDocument profil permet de porter des demandes d'examens (analyses biologiques, évaluations, étude d'imagerie, etc…) ou de suivis particuliers à programmer dans le cadre d'un plan de soins.</t>
+    <t>FRServiceRequestDocument profil permet de porter des demandes d'examens (analyses biologiques, évaluations, étude d'imagerie, etc…) ou de suivis particuliers à programmer dans le cadre d'un plan de soins.</t>
   </si>
   <si>
     <t>Purpose</t>
